--- a/ListasDatos/Zarate Amezcua Eladio Jorge_2021.xlsx
+++ b/ListasDatos/Zarate Amezcua Eladio Jorge_2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="915">
   <si>
     <t>NC</t>
   </si>
@@ -988,7 +988,7 @@
     <t>josueyaminrs@gmail.com</t>
   </si>
   <si>
-    <t>arturombappe10@gamil.com</t>
+    <t>arturombappe10@gmail.com</t>
   </si>
   <si>
     <t>sanjuanneftali@gmail.com</t>
@@ -1150,6 +1150,9 @@
     <t>MARTIN SAN JUAN CORTES</t>
   </si>
   <si>
+    <t>AGUSTÍN SOLANO MARTÍNEZ</t>
+  </si>
+  <si>
     <t>JESUS VÁZQUEZ SANTIAGO</t>
   </si>
   <si>
@@ -1159,9 +1162,6 @@
     <t>lilianagarciaconche@gmail.com</t>
   </si>
   <si>
-    <t>Marielc</t>
-  </si>
-  <si>
     <t>rethorespinosa@gmail.com</t>
   </si>
   <si>
@@ -1525,6 +1525,9 @@
     <t>berenicegarciavaliente@gmail.com</t>
   </si>
   <si>
+    <t>HERNANDEZCARRILLOA@OUTLOOK.COM</t>
+  </si>
+  <si>
     <t>mayleshernan@gmail.com</t>
   </si>
   <si>
@@ -1648,6 +1651,9 @@
     <t>2722361626</t>
   </si>
   <si>
+    <t>2721908175</t>
+  </si>
+  <si>
     <t>2722826842</t>
   </si>
   <si>
@@ -1744,6 +1750,9 @@
     <t>2722423003</t>
   </si>
   <si>
+    <t>2722828345</t>
+  </si>
+  <si>
     <t>2726883777</t>
   </si>
   <si>
@@ -1798,6 +1807,309 @@
     <t>2722277467</t>
   </si>
   <si>
+    <t>GABRIELA LOPEZ BAUTISTA</t>
+  </si>
+  <si>
+    <t>MARIA CRISTAL CHACÓN CARRERA</t>
+  </si>
+  <si>
+    <t>VICTOR ARMANDO CABALLERO VELÁZQUEZ</t>
+  </si>
+  <si>
+    <t>SAMANTHA BELEM RUIZ CRUZ</t>
+  </si>
+  <si>
+    <t>DALIA DEL CARMEN VELASCO REYES</t>
+  </si>
+  <si>
+    <t>FEDERICO ESPIRITU MARTINEZ</t>
+  </si>
+  <si>
+    <t>JULIA HERNÁNDEZ PETRA</t>
+  </si>
+  <si>
+    <t>FERNANDA LAGUNES LUCAS</t>
+  </si>
+  <si>
+    <t>MARÍA DE JESÚS GÓNZALEZ TAPÍA</t>
+  </si>
+  <si>
+    <t>ROSA MARIA VALIENTE MARTINEZ</t>
+  </si>
+  <si>
+    <t>FABIOLA CARRILLO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>LIDIA HERNANDEZ CAMPOS</t>
+  </si>
+  <si>
+    <t>ESTEBAN HERNANDEZ FIGUEIRAS</t>
+  </si>
+  <si>
+    <t>ISIDRA SALINAS GUZMAN</t>
+  </si>
+  <si>
+    <t>ALVARO JIMÉNEZ ROMERO</t>
+  </si>
+  <si>
+    <t>PATRICIA DE LA LUZ LOPEZ</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN GONZALEZ LUNA</t>
+  </si>
+  <si>
+    <t>SARA RIVERA MARTINEZ</t>
+  </si>
+  <si>
+    <t>LLERI ANGELICA CADENA AVIÑA</t>
+  </si>
+  <si>
+    <t>MARÍA EPIFANIA IXMATLAHUA XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>LAURA ALONDRA RODRIGUEZ IGNACIO</t>
+  </si>
+  <si>
+    <t>BALDEMAR MOLOHUA COTLAME</t>
+  </si>
+  <si>
+    <t>ISABEL HERNANDEZ BARCENA</t>
+  </si>
+  <si>
+    <t>JOSÉ ALBERTO OLIVARES PÉREZ</t>
+  </si>
+  <si>
+    <t>VICTORIA ROJAS VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>MARÍA IRENE BRAVO GONZALEZ</t>
+  </si>
+  <si>
+    <t>PAULINA DE LA CRUZ XILOHUA</t>
+  </si>
+  <si>
+    <t>JAIME LUCIO PEREZ VENTURA</t>
+  </si>
+  <si>
+    <t>JESÚS CLAUDIO PELLICO ARIAS</t>
+  </si>
+  <si>
+    <t>FATIMA GUADALUPE MARTINEZ VELAZCO</t>
+  </si>
+  <si>
+    <t>IRMA LUNA OSORIO</t>
+  </si>
+  <si>
+    <t>TOMASA MORENO PEMEZA</t>
+  </si>
+  <si>
+    <t>VERONICA ROMERO RAMIREZ</t>
+  </si>
+  <si>
+    <t>CONSTANTINA SANCHEZ DURAN</t>
+  </si>
+  <si>
+    <t>FORTINO SANCHEZ ISIDRO</t>
+  </si>
+  <si>
+    <t>ALMA NANCY MARTINEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>PAULA QUIÑONES ROSALES</t>
+  </si>
+  <si>
+    <t>DULCE DE LA CONCEPCIÓN SOLANO MENA</t>
+  </si>
+  <si>
+    <t>SILVIA PORRAS CASTRO</t>
+  </si>
+  <si>
+    <t>EUSTACIO TENTZOHUA HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>CLAUDIA GEORGINA VAZQUEZ LINARES</t>
+  </si>
+  <si>
+    <t>RODOLFO JAYR VAZQUEZ VERA</t>
+  </si>
+  <si>
+    <t>FELIPE FIDEL VILLA ACEVEDO</t>
+  </si>
+  <si>
+    <t>gabrielalopezbautistac073@gmail.com</t>
+  </si>
+  <si>
+    <t>cristal0584@gmail.com</t>
+  </si>
+  <si>
+    <t>samantha._belem.98@gmail.com</t>
+  </si>
+  <si>
+    <t>federico_espmat@hotmail.com</t>
+  </si>
+  <si>
+    <t>Anameyer73@gmail.com</t>
+  </si>
+  <si>
+    <t>Yesca666213@gmail.com</t>
+  </si>
+  <si>
+    <t>mariadejesusgonzaleztapia18@gamail.com</t>
+  </si>
+  <si>
+    <t>rosamariavm456@gmail.com</t>
+  </si>
+  <si>
+    <t>CUICAHUA@OUTLOOK.ES</t>
+  </si>
+  <si>
+    <t>lihecam@gmail.com</t>
+  </si>
+  <si>
+    <t>estevanhermandez68@gmail.com</t>
+  </si>
+  <si>
+    <t>Isisalguzman@gmail.com</t>
+  </si>
+  <si>
+    <t>reginadejesussanchez@gmail.com</t>
+  </si>
+  <si>
+    <t>cadenaangelica829@gmail.com</t>
+  </si>
+  <si>
+    <t>maryixmatlahua3745@gmail.com</t>
+  </si>
+  <si>
+    <t>rodriguezlauraalondra390@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanztere123@gmail.com</t>
+  </si>
+  <si>
+    <t>isabelherba8@gmail.com</t>
+  </si>
+  <si>
+    <t>jaolivaresp1576@gmail.com</t>
+  </si>
+  <si>
+    <t>palomaresgonzalezoctavio@gmail.com</t>
+  </si>
+  <si>
+    <t>mairenbg2128@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaime3004pv@gmail.com</t>
+  </si>
+  <si>
+    <t>jazminpellico1@gmail.com</t>
+  </si>
+  <si>
+    <t>ivonneperezluna08@gmail.com</t>
+  </si>
+  <si>
+    <t>Veronicaromeroramirez67@gmail.com</t>
+  </si>
+  <si>
+    <t>kimrugerio62@gmail.com</t>
+  </si>
+  <si>
+    <t>Almanancymartinezz@gmail.com</t>
+  </si>
+  <si>
+    <t>Paupau40284@gmail.com</t>
+  </si>
+  <si>
+    <t>ds1276064@hotmail.com</t>
+  </si>
+  <si>
+    <t>miguelmix489@gmail.com</t>
+  </si>
+  <si>
+    <t>fidelvilla2012@hotmail.es</t>
+  </si>
+  <si>
+    <t>2721308755</t>
+  </si>
+  <si>
+    <t>2722240321</t>
+  </si>
+  <si>
+    <t>2721245979</t>
+  </si>
+  <si>
+    <t>2722957669</t>
+  </si>
+  <si>
+    <t>2722237781</t>
+  </si>
+  <si>
+    <t>2722064762</t>
+  </si>
+  <si>
+    <t>2722147160</t>
+  </si>
+  <si>
+    <t>2721243262</t>
+  </si>
+  <si>
+    <t>2722641275</t>
+  </si>
+  <si>
+    <t>2294930901</t>
+  </si>
+  <si>
+    <t>2723351967</t>
+  </si>
+  <si>
+    <t>2722260619</t>
+  </si>
+  <si>
+    <t>2721171814</t>
+  </si>
+  <si>
+    <t>2721276972</t>
+  </si>
+  <si>
+    <t>2722258862</t>
+  </si>
+  <si>
+    <t>2722815799</t>
+  </si>
+  <si>
+    <t>2715933704</t>
+  </si>
+  <si>
+    <t>2722614976</t>
+  </si>
+  <si>
+    <t>2722279801</t>
+  </si>
+  <si>
+    <t>2721278588</t>
+  </si>
+  <si>
+    <t>2761036110</t>
+  </si>
+  <si>
+    <t>2721353893</t>
+  </si>
+  <si>
+    <t>2721870321</t>
+  </si>
+  <si>
+    <t>2727012438</t>
+  </si>
+  <si>
+    <t>2721981020</t>
+  </si>
+  <si>
+    <t>2721008760</t>
+  </si>
+  <si>
+    <t>2727238189</t>
+  </si>
+  <si>
     <t>ALVAREZ</t>
   </si>
   <si>
@@ -2242,7 +2554,7 @@
     <t>JESUS HERNANDEZ AQUINO</t>
   </si>
   <si>
-    <t>FERNANDO IXMATLAHUA ANDRADE IXTACZOQUITLAN HERNANDEZ</t>
+    <t>FERNANDO IXMATLAHUA ANDRADE</t>
   </si>
   <si>
     <t>ISABEL MONGE MORA</t>
@@ -3954,7 +4266,7 @@
         <v>356</v>
       </c>
       <c r="I2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J2" t="s">
         <v>393</v>
@@ -3983,7 +4295,7 @@
         <v>357</v>
       </c>
       <c r="I3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J3" t="s">
         <v>394</v>
@@ -4069,9 +4381,6 @@
       <c r="H6" t="s">
         <v>360</v>
       </c>
-      <c r="I6" t="s">
-        <v>380</v>
-      </c>
       <c r="J6" t="s">
         <v>396</v>
       </c>
@@ -4571,6 +4880,9 @@
       <c r="F23" t="s">
         <v>348</v>
       </c>
+      <c r="H23" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
@@ -4595,7 +4907,7 @@
         <v>355</v>
       </c>
       <c r="H24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I24" t="s">
         <v>392</v>
@@ -4675,10 +4987,19 @@
         <v>492</v>
       </c>
       <c r="F2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G2" t="s">
-        <v>572</v>
+        <v>574</v>
+      </c>
+      <c r="H2" t="s">
+        <v>596</v>
+      </c>
+      <c r="I2" t="s">
+        <v>639</v>
+      </c>
+      <c r="J2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4698,7 +5019,16 @@
         <v>493</v>
       </c>
       <c r="F3" t="s">
-        <v>535</v>
+        <v>536</v>
+      </c>
+      <c r="H3" t="s">
+        <v>597</v>
+      </c>
+      <c r="I3" t="s">
+        <v>640</v>
+      </c>
+      <c r="J3" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4718,7 +5048,16 @@
         <v>494</v>
       </c>
       <c r="F4" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="H4" t="s">
+        <v>598</v>
+      </c>
+      <c r="I4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J4" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4738,10 +5077,19 @@
         <v>495</v>
       </c>
       <c r="F5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G5" t="s">
-        <v>537</v>
+        <v>538</v>
+      </c>
+      <c r="H5" t="s">
+        <v>599</v>
+      </c>
+      <c r="I5" t="s">
+        <v>641</v>
+      </c>
+      <c r="J5" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4761,7 +5109,13 @@
         <v>496</v>
       </c>
       <c r="G6" t="s">
-        <v>573</v>
+        <v>575</v>
+      </c>
+      <c r="H6" t="s">
+        <v>600</v>
+      </c>
+      <c r="J6" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4781,7 +5135,16 @@
         <v>497</v>
       </c>
       <c r="F7" t="s">
-        <v>538</v>
+        <v>539</v>
+      </c>
+      <c r="H7" t="s">
+        <v>601</v>
+      </c>
+      <c r="I7" t="s">
+        <v>642</v>
+      </c>
+      <c r="J7" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4801,7 +5164,16 @@
         <v>498</v>
       </c>
       <c r="F8" t="s">
-        <v>539</v>
+        <v>540</v>
+      </c>
+      <c r="H8" t="s">
+        <v>602</v>
+      </c>
+      <c r="I8" t="s">
+        <v>643</v>
+      </c>
+      <c r="J8" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4821,10 +5193,19 @@
         <v>499</v>
       </c>
       <c r="F9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G9" t="s">
-        <v>574</v>
+        <v>576</v>
+      </c>
+      <c r="H9" t="s">
+        <v>603</v>
+      </c>
+      <c r="I9" t="s">
+        <v>644</v>
+      </c>
+      <c r="J9" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4844,7 +5225,16 @@
         <v>500</v>
       </c>
       <c r="F10" t="s">
-        <v>541</v>
+        <v>542</v>
+      </c>
+      <c r="H10" t="s">
+        <v>604</v>
+      </c>
+      <c r="I10" t="s">
+        <v>645</v>
+      </c>
+      <c r="J10" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4864,10 +5254,19 @@
         <v>501</v>
       </c>
       <c r="F11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G11" t="s">
         <v>397</v>
+      </c>
+      <c r="H11" t="s">
+        <v>605</v>
+      </c>
+      <c r="I11" t="s">
+        <v>646</v>
+      </c>
+      <c r="J11" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4883,6 +5282,24 @@
       <c r="D12" t="s">
         <v>460</v>
       </c>
+      <c r="E12" t="s">
+        <v>502</v>
+      </c>
+      <c r="F12" t="s">
+        <v>544</v>
+      </c>
+      <c r="G12" t="s">
+        <v>577</v>
+      </c>
+      <c r="H12" t="s">
+        <v>606</v>
+      </c>
+      <c r="I12" t="s">
+        <v>647</v>
+      </c>
+      <c r="J12" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -4898,13 +5315,22 @@
         <v>457</v>
       </c>
       <c r="E13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F13" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G13" t="s">
-        <v>575</v>
+        <v>578</v>
+      </c>
+      <c r="H13" t="s">
+        <v>607</v>
+      </c>
+      <c r="I13" t="s">
+        <v>648</v>
+      </c>
+      <c r="J13" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4921,13 +5347,22 @@
         <v>461</v>
       </c>
       <c r="E14" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F14" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G14" t="s">
-        <v>576</v>
+        <v>579</v>
+      </c>
+      <c r="H14" t="s">
+        <v>608</v>
+      </c>
+      <c r="I14" t="s">
+        <v>649</v>
+      </c>
+      <c r="J14" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4944,13 +5379,22 @@
         <v>462</v>
       </c>
       <c r="E15" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F15" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G15" t="s">
-        <v>577</v>
+        <v>580</v>
+      </c>
+      <c r="H15" t="s">
+        <v>609</v>
+      </c>
+      <c r="I15" t="s">
+        <v>650</v>
+      </c>
+      <c r="J15" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4967,16 +5411,25 @@
         <v>463</v>
       </c>
       <c r="E16" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F16" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G16" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>548</v>
+      </c>
+      <c r="H16" t="s">
+        <v>610</v>
+      </c>
+      <c r="I16" t="s">
+        <v>651</v>
+      </c>
+      <c r="J16" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>21330051920084</v>
       </c>
@@ -4990,13 +5443,19 @@
         <v>464</v>
       </c>
       <c r="E17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G17" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>581</v>
+      </c>
+      <c r="H17" t="s">
+        <v>611</v>
+      </c>
+      <c r="J17" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>21330051920085</v>
       </c>
@@ -5010,16 +5469,22 @@
         <v>465</v>
       </c>
       <c r="E18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F18" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G18" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>582</v>
+      </c>
+      <c r="H18" t="s">
+        <v>612</v>
+      </c>
+      <c r="J18" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>21330051920086</v>
       </c>
@@ -5033,16 +5498,22 @@
         <v>466</v>
       </c>
       <c r="E19" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F19" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G19" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>550</v>
+      </c>
+      <c r="H19" t="s">
+        <v>613</v>
+      </c>
+      <c r="J19" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>21330051920087</v>
       </c>
@@ -5056,16 +5527,25 @@
         <v>467</v>
       </c>
       <c r="E20" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F20" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G20" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>583</v>
+      </c>
+      <c r="H20" t="s">
+        <v>614</v>
+      </c>
+      <c r="I20" t="s">
+        <v>652</v>
+      </c>
+      <c r="J20" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>21330051920088</v>
       </c>
@@ -5079,16 +5559,25 @@
         <v>468</v>
       </c>
       <c r="E21" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F21" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G21" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>552</v>
+      </c>
+      <c r="H21" t="s">
+        <v>615</v>
+      </c>
+      <c r="I21" t="s">
+        <v>653</v>
+      </c>
+      <c r="J21" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21330051920089</v>
       </c>
@@ -5102,16 +5591,25 @@
         <v>469</v>
       </c>
       <c r="E22" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F22" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G22" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>584</v>
+      </c>
+      <c r="H22" t="s">
+        <v>616</v>
+      </c>
+      <c r="I22" t="s">
+        <v>654</v>
+      </c>
+      <c r="J22" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21330051920090</v>
       </c>
@@ -5125,16 +5623,25 @@
         <v>470</v>
       </c>
       <c r="E23" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F23" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G23" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>554</v>
+      </c>
+      <c r="H23" t="s">
+        <v>617</v>
+      </c>
+      <c r="I23" t="s">
+        <v>655</v>
+      </c>
+      <c r="J23" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>21330051920091</v>
       </c>
@@ -5148,13 +5655,22 @@
         <v>471</v>
       </c>
       <c r="E24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F24" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>555</v>
+      </c>
+      <c r="H24" t="s">
+        <v>618</v>
+      </c>
+      <c r="I24" t="s">
+        <v>656</v>
+      </c>
+      <c r="J24" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>21330051920092</v>
       </c>
@@ -5168,16 +5684,25 @@
         <v>472</v>
       </c>
       <c r="E25" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F25" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G25" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>585</v>
+      </c>
+      <c r="H25" t="s">
+        <v>619</v>
+      </c>
+      <c r="I25" t="s">
+        <v>657</v>
+      </c>
+      <c r="J25" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>21330051920093</v>
       </c>
@@ -5191,13 +5716,22 @@
         <v>473</v>
       </c>
       <c r="E26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F26" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>557</v>
+      </c>
+      <c r="H26" t="s">
+        <v>620</v>
+      </c>
+      <c r="I26" t="s">
+        <v>658</v>
+      </c>
+      <c r="J26" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>21330051920094</v>
       </c>
@@ -5211,16 +5745,25 @@
         <v>474</v>
       </c>
       <c r="E27" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F27" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G27" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>586</v>
+      </c>
+      <c r="H27" t="s">
+        <v>621</v>
+      </c>
+      <c r="I27" t="s">
+        <v>659</v>
+      </c>
+      <c r="J27" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>21330051920095</v>
       </c>
@@ -5234,13 +5777,22 @@
         <v>475</v>
       </c>
       <c r="E28" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F28" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>559</v>
+      </c>
+      <c r="H28" t="s">
+        <v>622</v>
+      </c>
+      <c r="I28" t="s">
+        <v>518</v>
+      </c>
+      <c r="J28" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>21330051920096</v>
       </c>
@@ -5254,13 +5806,22 @@
         <v>476</v>
       </c>
       <c r="E29" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F29" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>560</v>
+      </c>
+      <c r="H29" t="s">
+        <v>623</v>
+      </c>
+      <c r="I29" t="s">
+        <v>660</v>
+      </c>
+      <c r="J29" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>21330051920097</v>
       </c>
@@ -5274,16 +5835,25 @@
         <v>477</v>
       </c>
       <c r="E30" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F30" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G30" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>587</v>
+      </c>
+      <c r="H30" t="s">
+        <v>624</v>
+      </c>
+      <c r="I30" t="s">
+        <v>661</v>
+      </c>
+      <c r="J30" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>21330051920098</v>
       </c>
@@ -5297,13 +5867,19 @@
         <v>478</v>
       </c>
       <c r="E31" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G31" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>588</v>
+      </c>
+      <c r="H31" t="s">
+        <v>625</v>
+      </c>
+      <c r="J31" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>21330051920099</v>
       </c>
@@ -5317,16 +5893,25 @@
         <v>479</v>
       </c>
       <c r="E32" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F32" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G32" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>589</v>
+      </c>
+      <c r="H32" t="s">
+        <v>626</v>
+      </c>
+      <c r="I32" t="s">
+        <v>662</v>
+      </c>
+      <c r="J32" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>21330051920100</v>
       </c>
@@ -5340,13 +5925,19 @@
         <v>480</v>
       </c>
       <c r="E33" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G33" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>590</v>
+      </c>
+      <c r="H33" t="s">
+        <v>627</v>
+      </c>
+      <c r="J33" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>21330051920101</v>
       </c>
@@ -5360,16 +5951,25 @@
         <v>481</v>
       </c>
       <c r="E34" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F34" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G34" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>628</v>
+      </c>
+      <c r="I34" t="s">
+        <v>663</v>
+      </c>
+      <c r="J34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>21330051920383</v>
       </c>
@@ -5383,13 +5983,22 @@
         <v>482</v>
       </c>
       <c r="E35" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F35" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>564</v>
+      </c>
+      <c r="H35" t="s">
+        <v>629</v>
+      </c>
+      <c r="I35" t="s">
+        <v>664</v>
+      </c>
+      <c r="J35" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>21330051920102</v>
       </c>
@@ -5403,16 +6012,22 @@
         <v>483</v>
       </c>
       <c r="E36" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F36" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G36" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>591</v>
+      </c>
+      <c r="H36" t="s">
+        <v>630</v>
+      </c>
+      <c r="J36" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>21330051920103</v>
       </c>
@@ -5426,16 +6041,25 @@
         <v>484</v>
       </c>
       <c r="E37" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F37" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G37" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>592</v>
+      </c>
+      <c r="H37" t="s">
+        <v>631</v>
+      </c>
+      <c r="I37" t="s">
+        <v>665</v>
+      </c>
+      <c r="J37" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>21330051920104</v>
       </c>
@@ -5449,13 +6073,22 @@
         <v>485</v>
       </c>
       <c r="E38" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F38" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>567</v>
+      </c>
+      <c r="H38" t="s">
+        <v>632</v>
+      </c>
+      <c r="I38" t="s">
+        <v>666</v>
+      </c>
+      <c r="J38" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>21330051920105</v>
       </c>
@@ -5469,16 +6102,25 @@
         <v>486</v>
       </c>
       <c r="E39" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F39" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G39" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>568</v>
+      </c>
+      <c r="H39" t="s">
+        <v>633</v>
+      </c>
+      <c r="I39" t="s">
+        <v>667</v>
+      </c>
+      <c r="J39" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>21330051920106</v>
       </c>
@@ -5492,16 +6134,25 @@
         <v>487</v>
       </c>
       <c r="E40" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F40" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G40" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>593</v>
+      </c>
+      <c r="H40" t="s">
+        <v>634</v>
+      </c>
+      <c r="I40" t="s">
+        <v>530</v>
+      </c>
+      <c r="J40" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>21330051920107</v>
       </c>
@@ -5515,16 +6166,22 @@
         <v>488</v>
       </c>
       <c r="E41" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F41" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G41" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>570</v>
+      </c>
+      <c r="H41" t="s">
+        <v>635</v>
+      </c>
+      <c r="J41" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>21330051920108</v>
       </c>
@@ -5538,16 +6195,25 @@
         <v>489</v>
       </c>
       <c r="E42" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F42" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G42" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>594</v>
+      </c>
+      <c r="H42" t="s">
+        <v>636</v>
+      </c>
+      <c r="I42" t="s">
+        <v>668</v>
+      </c>
+      <c r="J42" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>21330051920109</v>
       </c>
@@ -5561,16 +6227,22 @@
         <v>490</v>
       </c>
       <c r="E43" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F43" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G43" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>595</v>
+      </c>
+      <c r="H43" t="s">
+        <v>637</v>
+      </c>
+      <c r="J43" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>21330051920387</v>
       </c>
@@ -5584,10 +6256,19 @@
         <v>491</v>
       </c>
       <c r="E44" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F44" t="s">
-        <v>571</v>
+        <v>573</v>
+      </c>
+      <c r="H44" t="s">
+        <v>638</v>
+      </c>
+      <c r="I44" t="s">
+        <v>669</v>
+      </c>
+      <c r="J44" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5649,31 +6330,31 @@
         <v>21330051920151</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>697</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>619</v>
+        <v>723</v>
       </c>
       <c r="E2" t="s">
-        <v>649</v>
+        <v>753</v>
       </c>
       <c r="F2" t="s">
-        <v>683</v>
+        <v>787</v>
       </c>
       <c r="G2" t="s">
-        <v>715</v>
+        <v>819</v>
       </c>
       <c r="H2" t="s">
-        <v>730</v>
+        <v>834</v>
       </c>
       <c r="I2" t="s">
-        <v>764</v>
+        <v>868</v>
       </c>
       <c r="J2" t="s">
-        <v>787</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5684,28 +6365,28 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>608</v>
+        <v>712</v>
       </c>
       <c r="D3" t="s">
-        <v>620</v>
+        <v>724</v>
       </c>
       <c r="E3" t="s">
-        <v>650</v>
+        <v>754</v>
       </c>
       <c r="F3" t="s">
-        <v>684</v>
+        <v>788</v>
       </c>
       <c r="G3" t="s">
-        <v>716</v>
+        <v>820</v>
       </c>
       <c r="H3" t="s">
-        <v>731</v>
+        <v>835</v>
       </c>
       <c r="I3" t="s">
-        <v>650</v>
+        <v>754</v>
       </c>
       <c r="J3" t="s">
-        <v>788</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5713,28 +6394,28 @@
         <v>21330051920153</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>698</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>621</v>
+        <v>725</v>
       </c>
       <c r="E4" t="s">
-        <v>651</v>
+        <v>755</v>
       </c>
       <c r="F4" t="s">
-        <v>685</v>
+        <v>789</v>
       </c>
       <c r="H4" t="s">
-        <v>732</v>
+        <v>836</v>
       </c>
       <c r="I4" t="s">
-        <v>765</v>
+        <v>869</v>
       </c>
       <c r="J4" t="s">
-        <v>789</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5745,28 +6426,28 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
+        <v>713</v>
       </c>
       <c r="D5" t="s">
-        <v>622</v>
+        <v>726</v>
       </c>
       <c r="E5" t="s">
-        <v>652</v>
+        <v>756</v>
       </c>
       <c r="F5" t="s">
-        <v>686</v>
+        <v>790</v>
       </c>
       <c r="G5" t="s">
-        <v>717</v>
+        <v>821</v>
       </c>
       <c r="H5" t="s">
-        <v>733</v>
+        <v>837</v>
       </c>
       <c r="I5" t="s">
-        <v>766</v>
+        <v>870</v>
       </c>
       <c r="J5" t="s">
-        <v>717</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5774,28 +6455,28 @@
         <v>21330051920155</v>
       </c>
       <c r="B6" t="s">
-        <v>595</v>
+        <v>699</v>
       </c>
       <c r="C6" t="s">
-        <v>610</v>
+        <v>714</v>
       </c>
       <c r="D6" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="E6" t="s">
-        <v>653</v>
+        <v>757</v>
       </c>
       <c r="F6" t="s">
-        <v>687</v>
+        <v>791</v>
       </c>
       <c r="H6" t="s">
-        <v>734</v>
+        <v>838</v>
       </c>
       <c r="I6" t="s">
-        <v>767</v>
+        <v>871</v>
       </c>
       <c r="J6" t="s">
-        <v>790</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5803,25 +6484,25 @@
         <v>21330051920156</v>
       </c>
       <c r="B7" t="s">
-        <v>596</v>
+        <v>700</v>
       </c>
       <c r="C7" t="s">
         <v>435</v>
       </c>
       <c r="D7" t="s">
-        <v>624</v>
+        <v>728</v>
       </c>
       <c r="E7" t="s">
-        <v>654</v>
+        <v>758</v>
       </c>
       <c r="F7" t="s">
-        <v>688</v>
+        <v>792</v>
       </c>
       <c r="H7" t="s">
-        <v>735</v>
+        <v>839</v>
       </c>
       <c r="J7" t="s">
-        <v>791</v>
+        <v>895</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5835,25 +6516,25 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>625</v>
+        <v>729</v>
       </c>
       <c r="E8" t="s">
-        <v>655</v>
+        <v>759</v>
       </c>
       <c r="F8" t="s">
-        <v>689</v>
+        <v>793</v>
       </c>
       <c r="G8" t="s">
-        <v>718</v>
+        <v>822</v>
       </c>
       <c r="H8" t="s">
-        <v>736</v>
+        <v>840</v>
       </c>
       <c r="I8" t="s">
-        <v>655</v>
+        <v>759</v>
       </c>
       <c r="J8" t="s">
-        <v>718</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5861,31 +6542,31 @@
         <v>21330051920158</v>
       </c>
       <c r="B9" t="s">
-        <v>597</v>
+        <v>701</v>
       </c>
       <c r="C9" t="s">
-        <v>611</v>
+        <v>715</v>
       </c>
       <c r="D9" t="s">
-        <v>626</v>
+        <v>730</v>
       </c>
       <c r="E9" t="s">
-        <v>656</v>
+        <v>760</v>
       </c>
       <c r="F9" t="s">
-        <v>690</v>
+        <v>794</v>
       </c>
       <c r="G9" t="s">
-        <v>719</v>
+        <v>823</v>
       </c>
       <c r="H9" t="s">
-        <v>737</v>
+        <v>841</v>
       </c>
       <c r="I9" t="s">
-        <v>768</v>
+        <v>872</v>
       </c>
       <c r="J9" t="s">
-        <v>792</v>
+        <v>896</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5899,25 +6580,25 @@
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>627</v>
+        <v>731</v>
       </c>
       <c r="E10" t="s">
-        <v>657</v>
+        <v>761</v>
       </c>
       <c r="F10" t="s">
-        <v>691</v>
+        <v>795</v>
       </c>
       <c r="G10" t="s">
-        <v>691</v>
+        <v>795</v>
       </c>
       <c r="H10" t="s">
-        <v>738</v>
+        <v>842</v>
       </c>
       <c r="I10" t="s">
-        <v>769</v>
+        <v>873</v>
       </c>
       <c r="J10" t="s">
-        <v>793</v>
+        <v>897</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5928,28 +6609,28 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>594</v>
+        <v>698</v>
       </c>
       <c r="D11" t="s">
-        <v>628</v>
+        <v>732</v>
       </c>
       <c r="E11" t="s">
-        <v>658</v>
+        <v>762</v>
       </c>
       <c r="F11" t="s">
-        <v>692</v>
+        <v>796</v>
       </c>
       <c r="G11" t="s">
-        <v>692</v>
+        <v>796</v>
       </c>
       <c r="H11" t="s">
-        <v>739</v>
+        <v>843</v>
       </c>
       <c r="I11" t="s">
-        <v>770</v>
+        <v>874</v>
       </c>
       <c r="J11" t="s">
-        <v>794</v>
+        <v>898</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5963,22 +6644,22 @@
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>629</v>
+        <v>733</v>
       </c>
       <c r="E12" t="s">
-        <v>659</v>
+        <v>763</v>
       </c>
       <c r="F12" t="s">
-        <v>693</v>
+        <v>797</v>
       </c>
       <c r="H12" t="s">
-        <v>740</v>
+        <v>844</v>
       </c>
       <c r="I12" t="s">
-        <v>771</v>
+        <v>875</v>
       </c>
       <c r="J12" t="s">
-        <v>795</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5992,22 +6673,22 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>630</v>
+        <v>734</v>
       </c>
       <c r="E13" t="s">
-        <v>660</v>
+        <v>764</v>
       </c>
       <c r="F13" t="s">
-        <v>694</v>
+        <v>798</v>
       </c>
       <c r="H13" t="s">
-        <v>741</v>
+        <v>845</v>
       </c>
       <c r="I13" t="s">
-        <v>772</v>
+        <v>876</v>
       </c>
       <c r="J13" t="s">
-        <v>796</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6018,25 +6699,25 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>609</v>
+        <v>713</v>
       </c>
       <c r="D14" t="s">
-        <v>631</v>
+        <v>735</v>
       </c>
       <c r="E14" t="s">
-        <v>661</v>
+        <v>765</v>
       </c>
       <c r="G14" t="s">
-        <v>720</v>
+        <v>824</v>
       </c>
       <c r="H14" t="s">
-        <v>742</v>
+        <v>846</v>
       </c>
       <c r="I14" t="s">
-        <v>773</v>
+        <v>877</v>
       </c>
       <c r="J14" t="s">
-        <v>720</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6044,28 +6725,28 @@
         <v>21330051920164</v>
       </c>
       <c r="B15" t="s">
-        <v>598</v>
+        <v>702</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>632</v>
+        <v>736</v>
       </c>
       <c r="E15" t="s">
-        <v>662</v>
+        <v>766</v>
       </c>
       <c r="F15" t="s">
-        <v>695</v>
+        <v>799</v>
       </c>
       <c r="H15" t="s">
-        <v>743</v>
+        <v>847</v>
       </c>
       <c r="I15" t="s">
-        <v>774</v>
+        <v>878</v>
       </c>
       <c r="J15" t="s">
-        <v>695</v>
+        <v>799</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6073,31 +6754,31 @@
         <v>21330051920165</v>
       </c>
       <c r="B16" t="s">
-        <v>599</v>
+        <v>703</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>633</v>
+        <v>737</v>
       </c>
       <c r="E16" t="s">
-        <v>663</v>
+        <v>767</v>
       </c>
       <c r="F16" t="s">
-        <v>696</v>
+        <v>800</v>
       </c>
       <c r="G16" t="s">
-        <v>721</v>
+        <v>825</v>
       </c>
       <c r="H16" t="s">
-        <v>744</v>
+        <v>848</v>
       </c>
       <c r="I16" t="s">
-        <v>775</v>
+        <v>879</v>
       </c>
       <c r="J16" t="s">
-        <v>797</v>
+        <v>901</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6108,28 +6789,28 @@
         <v>449</v>
       </c>
       <c r="C17" t="s">
-        <v>612</v>
+        <v>716</v>
       </c>
       <c r="D17" t="s">
         <v>490</v>
       </c>
       <c r="E17" t="s">
-        <v>664</v>
+        <v>768</v>
       </c>
       <c r="F17" t="s">
-        <v>697</v>
+        <v>801</v>
       </c>
       <c r="G17" t="s">
-        <v>722</v>
+        <v>826</v>
       </c>
       <c r="H17" t="s">
-        <v>745</v>
+        <v>849</v>
       </c>
       <c r="I17" t="s">
-        <v>664</v>
+        <v>768</v>
       </c>
       <c r="J17" t="s">
-        <v>798</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6137,28 +6818,28 @@
         <v>21330051920167</v>
       </c>
       <c r="B18" t="s">
-        <v>600</v>
+        <v>704</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>634</v>
+        <v>738</v>
       </c>
       <c r="E18" t="s">
-        <v>665</v>
+        <v>769</v>
       </c>
       <c r="F18" t="s">
-        <v>698</v>
+        <v>802</v>
       </c>
       <c r="G18" t="s">
-        <v>723</v>
+        <v>827</v>
       </c>
       <c r="H18" t="s">
-        <v>746</v>
+        <v>850</v>
       </c>
       <c r="J18" t="s">
-        <v>799</v>
+        <v>903</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6172,25 +6853,25 @@
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>635</v>
+        <v>739</v>
       </c>
       <c r="E19" t="s">
-        <v>666</v>
+        <v>770</v>
       </c>
       <c r="F19" t="s">
-        <v>699</v>
+        <v>803</v>
       </c>
       <c r="G19" t="s">
-        <v>699</v>
+        <v>803</v>
       </c>
       <c r="H19" t="s">
-        <v>747</v>
+        <v>851</v>
       </c>
       <c r="I19" t="s">
-        <v>776</v>
+        <v>880</v>
       </c>
       <c r="J19" t="s">
-        <v>800</v>
+        <v>904</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6204,25 +6885,25 @@
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>636</v>
+        <v>740</v>
       </c>
       <c r="E20" t="s">
-        <v>667</v>
+        <v>771</v>
       </c>
       <c r="F20" t="s">
-        <v>700</v>
+        <v>804</v>
       </c>
       <c r="G20" t="s">
-        <v>700</v>
+        <v>804</v>
       </c>
       <c r="H20" t="s">
-        <v>748</v>
+        <v>852</v>
       </c>
       <c r="I20" t="s">
-        <v>777</v>
+        <v>881</v>
       </c>
       <c r="J20" t="s">
-        <v>700</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6233,25 +6914,25 @@
         <v>418</v>
       </c>
       <c r="C21" t="s">
-        <v>607</v>
+        <v>711</v>
       </c>
       <c r="D21" t="s">
-        <v>637</v>
+        <v>741</v>
       </c>
       <c r="E21" t="s">
-        <v>668</v>
+        <v>772</v>
       </c>
       <c r="F21" t="s">
-        <v>701</v>
+        <v>805</v>
       </c>
       <c r="H21" t="s">
-        <v>749</v>
+        <v>853</v>
       </c>
       <c r="I21" t="s">
-        <v>778</v>
+        <v>882</v>
       </c>
       <c r="J21" t="s">
-        <v>801</v>
+        <v>905</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6265,22 +6946,22 @@
         <v>418</v>
       </c>
       <c r="D22" t="s">
-        <v>638</v>
+        <v>742</v>
       </c>
       <c r="E22" t="s">
-        <v>669</v>
+        <v>773</v>
       </c>
       <c r="F22" t="s">
-        <v>702</v>
+        <v>806</v>
       </c>
       <c r="H22" t="s">
-        <v>750</v>
+        <v>854</v>
       </c>
       <c r="I22" t="s">
-        <v>779</v>
+        <v>883</v>
       </c>
       <c r="J22" t="s">
-        <v>802</v>
+        <v>906</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6288,31 +6969,31 @@
         <v>21330051920172</v>
       </c>
       <c r="B23" t="s">
-        <v>601</v>
+        <v>705</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>639</v>
+        <v>743</v>
       </c>
       <c r="E23" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="F23" t="s">
-        <v>703</v>
+        <v>807</v>
       </c>
       <c r="G23" t="s">
-        <v>724</v>
+        <v>828</v>
       </c>
       <c r="H23" t="s">
-        <v>751</v>
+        <v>855</v>
       </c>
       <c r="I23" t="s">
-        <v>670</v>
+        <v>774</v>
       </c>
       <c r="J23" t="s">
-        <v>703</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6320,31 +7001,31 @@
         <v>21330051920173</v>
       </c>
       <c r="B24" t="s">
-        <v>602</v>
+        <v>706</v>
       </c>
       <c r="C24" t="s">
-        <v>613</v>
+        <v>717</v>
       </c>
       <c r="D24" t="s">
-        <v>640</v>
+        <v>744</v>
       </c>
       <c r="E24" t="s">
-        <v>671</v>
+        <v>775</v>
       </c>
       <c r="F24" t="s">
-        <v>704</v>
+        <v>808</v>
       </c>
       <c r="G24" t="s">
-        <v>725</v>
+        <v>829</v>
       </c>
       <c r="H24" t="s">
-        <v>752</v>
+        <v>856</v>
       </c>
       <c r="I24" t="s">
-        <v>780</v>
+        <v>884</v>
       </c>
       <c r="J24" t="s">
-        <v>704</v>
+        <v>808</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6358,25 +7039,25 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>641</v>
+        <v>745</v>
       </c>
       <c r="E25" t="s">
-        <v>672</v>
+        <v>776</v>
       </c>
       <c r="F25" t="s">
-        <v>705</v>
+        <v>809</v>
       </c>
       <c r="G25" t="s">
-        <v>726</v>
+        <v>830</v>
       </c>
       <c r="H25" t="s">
-        <v>753</v>
+        <v>857</v>
       </c>
       <c r="I25" t="s">
-        <v>672</v>
+        <v>776</v>
       </c>
       <c r="J25" t="s">
-        <v>705</v>
+        <v>809</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6387,25 +7068,25 @@
         <v>437</v>
       </c>
       <c r="C26" t="s">
-        <v>614</v>
+        <v>718</v>
       </c>
       <c r="D26" t="s">
-        <v>642</v>
+        <v>746</v>
       </c>
       <c r="E26" t="s">
-        <v>673</v>
+        <v>777</v>
       </c>
       <c r="F26" t="s">
-        <v>706</v>
+        <v>810</v>
       </c>
       <c r="H26" t="s">
-        <v>754</v>
+        <v>858</v>
       </c>
       <c r="I26" t="s">
-        <v>781</v>
+        <v>885</v>
       </c>
       <c r="J26" t="s">
-        <v>803</v>
+        <v>907</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6416,22 +7097,22 @@
         <v>430</v>
       </c>
       <c r="C27" t="s">
-        <v>615</v>
+        <v>719</v>
       </c>
       <c r="D27" t="s">
-        <v>643</v>
+        <v>747</v>
       </c>
       <c r="E27" t="s">
-        <v>674</v>
+        <v>778</v>
       </c>
       <c r="G27" t="s">
-        <v>727</v>
+        <v>831</v>
       </c>
       <c r="H27" t="s">
-        <v>755</v>
+        <v>859</v>
       </c>
       <c r="J27" t="s">
-        <v>804</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6442,28 +7123,28 @@
         <v>267</v>
       </c>
       <c r="C28" t="s">
-        <v>594</v>
+        <v>698</v>
       </c>
       <c r="D28" t="s">
-        <v>644</v>
+        <v>748</v>
       </c>
       <c r="E28" t="s">
-        <v>675</v>
+        <v>779</v>
       </c>
       <c r="F28" t="s">
-        <v>707</v>
+        <v>811</v>
       </c>
       <c r="G28" t="s">
-        <v>728</v>
+        <v>832</v>
       </c>
       <c r="H28" t="s">
-        <v>756</v>
+        <v>860</v>
       </c>
       <c r="I28" t="s">
-        <v>782</v>
+        <v>886</v>
       </c>
       <c r="J28" t="s">
-        <v>805</v>
+        <v>909</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6471,28 +7152,28 @@
         <v>21330051920178</v>
       </c>
       <c r="B29" t="s">
-        <v>603</v>
+        <v>707</v>
       </c>
       <c r="C29" t="s">
-        <v>616</v>
+        <v>720</v>
       </c>
       <c r="D29" t="s">
         <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>676</v>
+        <v>780</v>
       </c>
       <c r="F29" t="s">
-        <v>708</v>
+        <v>812</v>
       </c>
       <c r="H29" t="s">
-        <v>757</v>
+        <v>861</v>
       </c>
       <c r="I29" t="s">
-        <v>783</v>
+        <v>887</v>
       </c>
       <c r="J29" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6503,25 +7184,25 @@
         <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>617</v>
+        <v>721</v>
       </c>
       <c r="D30" t="s">
-        <v>645</v>
+        <v>749</v>
       </c>
       <c r="E30" t="s">
-        <v>677</v>
+        <v>781</v>
       </c>
       <c r="F30" t="s">
-        <v>709</v>
+        <v>813</v>
       </c>
       <c r="H30" t="s">
-        <v>758</v>
+        <v>862</v>
       </c>
       <c r="I30" t="s">
-        <v>784</v>
+        <v>888</v>
       </c>
       <c r="J30" t="s">
-        <v>807</v>
+        <v>911</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6529,31 +7210,31 @@
         <v>21330051920180</v>
       </c>
       <c r="B31" t="s">
-        <v>604</v>
+        <v>708</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>646</v>
+        <v>750</v>
       </c>
       <c r="E31" t="s">
-        <v>678</v>
+        <v>782</v>
       </c>
       <c r="F31" t="s">
-        <v>710</v>
+        <v>814</v>
       </c>
       <c r="G31" t="s">
-        <v>729</v>
+        <v>833</v>
       </c>
       <c r="H31" t="s">
-        <v>759</v>
+        <v>863</v>
       </c>
       <c r="I31" t="s">
-        <v>678</v>
+        <v>782</v>
       </c>
       <c r="J31" t="s">
-        <v>710</v>
+        <v>814</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6561,28 +7242,28 @@
         <v>21330051920181</v>
       </c>
       <c r="B32" t="s">
-        <v>605</v>
+        <v>709</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>647</v>
+        <v>751</v>
       </c>
       <c r="E32" t="s">
-        <v>679</v>
+        <v>783</v>
       </c>
       <c r="F32" t="s">
-        <v>711</v>
+        <v>815</v>
       </c>
       <c r="H32" t="s">
-        <v>760</v>
+        <v>864</v>
       </c>
       <c r="I32" t="s">
-        <v>785</v>
+        <v>889</v>
       </c>
       <c r="J32" t="s">
-        <v>808</v>
+        <v>912</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6590,28 +7271,28 @@
         <v>21330051920182</v>
       </c>
       <c r="B33" t="s">
-        <v>606</v>
+        <v>710</v>
       </c>
       <c r="C33" t="s">
         <v>418</v>
       </c>
       <c r="D33" t="s">
-        <v>648</v>
+        <v>752</v>
       </c>
       <c r="E33" t="s">
-        <v>680</v>
+        <v>784</v>
       </c>
       <c r="F33" t="s">
-        <v>712</v>
+        <v>816</v>
       </c>
       <c r="H33" t="s">
-        <v>761</v>
+        <v>865</v>
       </c>
       <c r="I33" t="s">
-        <v>786</v>
+        <v>890</v>
       </c>
       <c r="J33" t="s">
-        <v>809</v>
+        <v>913</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6619,31 +7300,31 @@
         <v>21330051920183</v>
       </c>
       <c r="B34" t="s">
-        <v>606</v>
+        <v>710</v>
       </c>
       <c r="C34" t="s">
-        <v>618</v>
+        <v>722</v>
       </c>
       <c r="D34" t="s">
         <v>490</v>
       </c>
       <c r="E34" t="s">
-        <v>681</v>
+        <v>785</v>
       </c>
       <c r="F34" t="s">
-        <v>713</v>
+        <v>817</v>
       </c>
       <c r="G34" t="s">
-        <v>713</v>
+        <v>817</v>
       </c>
       <c r="H34" t="s">
-        <v>762</v>
+        <v>866</v>
       </c>
       <c r="I34" t="s">
-        <v>681</v>
+        <v>785</v>
       </c>
       <c r="J34" t="s">
-        <v>713</v>
+        <v>817</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6651,25 +7332,25 @@
         <v>21330051920184</v>
       </c>
       <c r="B35" t="s">
-        <v>607</v>
+        <v>711</v>
       </c>
       <c r="C35" t="s">
-        <v>605</v>
+        <v>709</v>
       </c>
       <c r="D35" t="s">
-        <v>619</v>
+        <v>723</v>
       </c>
       <c r="E35" t="s">
-        <v>682</v>
+        <v>786</v>
       </c>
       <c r="F35" t="s">
-        <v>714</v>
+        <v>818</v>
       </c>
       <c r="H35" t="s">
-        <v>763</v>
+        <v>867</v>
       </c>
       <c r="J35" t="s">
-        <v>810</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
